--- a/medicine/Sexualité et sexologie/Swiped/Swiped.xlsx
+++ b/medicine/Sexualité et sexologie/Swiped/Swiped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swiped (littéralement « Balayé » ou « Supprimé ») est une comédie romantique initiatique américaine écrite, produite et réalisée par Ann Deborah Fishman, sortie en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’étudiant Lance Black (Noah Centineo) demande à son camarade colocataire James Singer (Kendall Sanders) de créer une application de rencontres coquines avec une connexion privée uniquement sur tout leur campus. Malheureusement, une fois créé avec succès, Lance regrette d’être impliqué…
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Swiped
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Noah Centineo (VF : Arnaud Laurent) : Lance Black
@@ -630,7 +648,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournage a lieu en juillet 2016 dans le comté de Palm Beach en Floride.
 </t>
@@ -661,10 +681,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swiped est sorti le 6 novembre 2018 aux États-Unis par iTunes et Netflix. Il est également sorti le 1er juillet 2019 dans plusieurs pays tels que le Royaume-Uni, l’Espagne et la Norvège[1]
-Le film reçoit surtout des critiques négatives[2]. Sur Rotten Tomatoes, il obtient une cote de 20% avec cinq critiques, avec une moyenne de 2.83/10[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swiped est sorti le 6 novembre 2018 aux États-Unis par iTunes et Netflix. Il est également sorti le 1er juillet 2019 dans plusieurs pays tels que le Royaume-Uni, l’Espagne et la Norvège
+Le film reçoit surtout des critiques négatives. Sur Rotten Tomatoes, il obtient une cote de 20% avec cinq critiques, avec une moyenne de 2.83/10.
 </t>
         </is>
       </c>
